--- a/biology/Botanique/Cucumis_anguria/Cucumis_anguria.xlsx
+++ b/biology/Botanique/Cucumis_anguria/Cucumis_anguria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucumis anguria, le concombre des Antilles, est une espèce de plantes à fleurs dicotylédones de la famille des Cucurbitaceae, originaire d'Afrique australe.
 C'est une plante herbacée annuelle, monoïque, aux tiges rampantes ou grimpantes pouvant atteindre 2,5 mètres de long. Les fruits sont des baies ellipsoïdes de 3 à 4 cm de long, jaunes à maturité.
@@ -513,9 +525,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 février 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 février 2021) :
 Cucumis anguria var. anguria
 Cucumis anguria var. longipes (Hook.f.) A.Meeuse
 Cucumis anguria var. longaculeatus J.H.Kirkbr.</t>
